--- a/annual_data/2001.xlsx
+++ b/annual_data/2001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央社会和法制委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人力资源和社会保障部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2012-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -527,16 +527,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110000001999</v>
+        <v>110000002003</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>刘淇</t>
+          <t>王岐山</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央经济体制改革委员会办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>110000002003</v>
+        <v>511100011990</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>王岐山</t>
+          <t>郭金龙</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>110000002013</v>
+        <v>120000001982</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>王安顺</t>
+          <t>李瑞环</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -581,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110000002013</v>
+        <v>120000001982</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>王安顺</t>
+          <t>李瑞环</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市国有资产监督管理委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -617,16 +617,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120000001993</v>
+        <v>120000001998</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>张立昌</t>
+          <t>李盛霖</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1995-06-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行行长'}</t>
         </is>
       </c>
     </row>
@@ -671,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331000011991</v>
+        <v>120000002003</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>黄兴国</t>
+          <t>戴相龙</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行货币政策委员会主席'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国兵器工业总公司副总经理'}</t>
+          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2004-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学经济管理学院数量经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -725,16 +725,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>130000001993</v>
+        <v>500000002017</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>叶连松</t>
+          <t>张国清</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国兵器工业总公司副总经理'}</t>
         </is>
       </c>
     </row>
@@ -743,16 +743,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>130000001993</v>
+        <v>500000002017</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>叶连松</t>
+          <t>张国清</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国北方工业公司党委书记、副总裁'}</t>
         </is>
       </c>
     </row>
@@ -761,16 +761,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>130000001999</v>
+        <v>500000002017</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>钮茂生</t>
+          <t>张国清</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国万宝工程集团董事长'}</t>
         </is>
       </c>
     </row>
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>130000001999</v>
+        <v>500000002017</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>钮茂生</t>
+          <t>张国清</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族和宗教委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '香港特别行政区', 'job_name': '香港特别行政区香港银华国际集团发展有限公司董事长'}</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>320000001999</v>
+        <v>130000001988</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>季允石</t>
+          <t>岳歧峰</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -815,16 +815,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>133023011990</v>
+        <v>410000001987</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>郭庚茂</t>
+          <t>程维高</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河北省', 'job_name': '河北省人大常委会主任（严重违纪）'}</t>
         </is>
       </c>
     </row>
@@ -833,16 +833,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>540500001996</v>
+        <v>130000001993</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>胡春华</t>
+          <t>叶连松</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -851,16 +851,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>540500001996</v>
+        <v>130000001999</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>胡春华</t>
+          <t>钮茂生</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -869,16 +869,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>412823011990</v>
+        <v>320000001999</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈全国</t>
+          <t>季允石</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -887,16 +887,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>130000002012</v>
+        <v>133023011990</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>张庆伟</t>
+          <t>郭庚茂</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司总经理'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -905,16 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>440300002010</v>
+        <v>412823011990</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>许勤</t>
+          <t>陈全国</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会高技术产业发展司副司长'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -923,16 +923,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>140000001993</v>
+        <v>140000001983</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>胡富国</t>
+          <t>王森浩</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -977,16 +977,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>440106011990</v>
+        <v>210400011990</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>于幼军</t>
+          <t>刘振华</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央南水北调工程建设委员会办公室副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）常委副市长'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1067,16 +1067,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>140000002013</v>
+        <v>331100012003</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>李小鹏</t>
+          <t>楼阳生</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央华能集团公司董事长'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'job_name': '浙江省金华市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-02-01 00:00:00'), 'location': '浙江省丽水市', 'job_name': '浙江省丽水市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'job_name': '浙江省金华市政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省经济贸易委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '湖南省湘潭市', 'job_name': '湖南省湘潭市湘潭钢铁公司总经理、执行董事'}</t>
         </is>
       </c>
     </row>
@@ -1121,16 +1121,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>150000002001</v>
+        <v>150000001983</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>乌云其木格</t>
+          <t>布赫</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'job_name': '内蒙古自治区呼和浩特市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1157,16 +1157,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>150100011998</v>
+        <v>152900002005</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>杨晶</t>
+          <t>布小林</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区法制办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1175,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>150300011994</v>
+        <v>210000001982</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>巴特尔</t>
+          <t>全树仁</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1193,16 +1193,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>152900002005</v>
+        <v>210000001987</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>布小林</t>
+          <t>李长春</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国社会科学院社会学博士生'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2008-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中央宣传思想工作领导小组组长'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1229,16 +1229,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>210000001987</v>
+        <v>210000001994</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>李长春</t>
+          <t>闻世震</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1247,16 +1247,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>210000001987</v>
+        <v>210100011989</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>李长春</t>
+          <t>张国光</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1265,16 +1265,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>210000001994</v>
+        <v>210100002001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>闻世震</t>
+          <t>陈政高</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1283,16 +1283,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>210000002004</v>
+        <v>210100002001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>张文岳</t>
+          <t>陈政高</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1301,16 +1301,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>210100002001</v>
+        <v>210000002015</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>陈政高</t>
+          <t>陈求发</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会纪检组组长'}</t>
         </is>
       </c>
     </row>
@@ -1319,16 +1319,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>210000002015</v>
+        <v>220000001985</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>陈求发</t>
+          <t>高德占</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会纪检组组长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -1337,16 +1337,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>220000001989</v>
+        <v>220000001985</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>王忠禹</t>
+          <t>高德占</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1355,16 +1355,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>220000001992</v>
+        <v>410000001984</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>高严</t>
+          <t>何竹康</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'job_name': '中央国家电力公司副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>220100011993</v>
+        <v>220000001989</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>王云坤</t>
+          <t>王忠禹</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国家行政学院院长'}</t>
         </is>
       </c>
     </row>
@@ -1391,16 +1391,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>220000002007</v>
+        <v>220000001989</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>韩长赋</t>
+          <t>王忠禹</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学人文社会科学学院法学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）机关党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1409,16 +1409,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>220000002007</v>
+        <v>220000001989</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>韩长赋</t>
+          <t>王忠禹</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政策研究室副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）秘书长'}</t>
         </is>
       </c>
     </row>
@@ -1427,16 +1427,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>330200012004</v>
+        <v>220000001989</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>巴音朝鲁</t>
+          <t>王忠禹</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -1445,16 +1445,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>220000002018</v>
+        <v>220000001989</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>景俊海</t>
+          <t>王忠禹</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市科学技术协会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国家机关工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -1463,16 +1463,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>220000002018</v>
+        <v>220000001992</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>景俊海</t>
+          <t>高严</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市经济技术开发区管委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'job_name': '中央国家电力公司副部长'}</t>
         </is>
       </c>
     </row>
@@ -1481,16 +1481,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>230000001989</v>
+        <v>220100011993</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>邵奇惠</t>
+          <t>王云坤</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>230000002000</v>
+        <v>220000001999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>宋法棠</t>
+          <t>洪虎</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1517,16 +1517,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>230000002000</v>
+        <v>320500012002</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>宋法棠</t>
+          <t>王珉</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1535,16 +1535,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>610100012002</v>
+        <v>220000002015</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>栗战书</t>
+          <t>蒋超良</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行行长助理'}</t>
         </is>
       </c>
     </row>
@@ -1553,16 +1553,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>230000002011</v>
+        <v>230400012005</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>王宪魁</t>
+          <t>刘国中</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政策研究室副主任、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -1571,16 +1571,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>230000002013</v>
+        <v>220000002018</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>陆昊</t>
+          <t>景俊海</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市经济技术开发区管委会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1589,16 +1589,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>310000001991</v>
+        <v>220000002018</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>黄菊</t>
+          <t>景俊海</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市科学技术协会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1607,16 +1607,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>310000001991</v>
+        <v>230000001989</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>黄菊</t>
+          <t>邵奇惠</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委（病逝）'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1625,16 +1625,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>310000001995</v>
+        <v>230100011992</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>徐匡迪</t>
+          <t>田凤山</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2010-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国工程院院长'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局部长(免职）'}</t>
         </is>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>310000001995</v>
+        <v>230000002000</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>徐匡迪</t>
+          <t>宋法棠</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1661,16 +1661,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>310000001995</v>
+        <v>610100012002</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>徐匡迪</t>
+          <t>栗战书</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国工业经济联合会会长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -1679,16 +1679,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>310000002002</v>
+        <v>230000002011</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>陈良宇</t>
+          <t>王宪魁</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'job_name': '中央铁道部/厅/局政治部党组成员、政治部主任、中央精神文明建设指导委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -1697,16 +1697,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>310000002002</v>
+        <v>230000002013</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>陈良宇</t>
+          <t>陆昊</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员（停职）'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中关村科技园区管委会主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1715,16 +1715,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>310000002003</v>
+        <v>230000002013</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>韩正</t>
+          <t>陆昊</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2012-12-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市海淀区', 'job_name': '北京市海淀区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1733,16 +1733,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>310000002013</v>
+        <v>310000001986</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>杨雄</t>
+          <t>江泽民</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局总书记'}</t>
         </is>
       </c>
     </row>
@@ -1751,16 +1751,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>310000002013</v>
+        <v>310000001986</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>杨雄</t>
+          <t>江泽民</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市临港新城管委会主任'}</t>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1769,16 +1769,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>310000002013</v>
+        <v>310000001988</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>杨雄</t>
+          <t>朱镕基</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市洋山保税港区管委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）总理'}</t>
         </is>
       </c>
     </row>
@@ -1787,16 +1787,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>310000002017</v>
+        <v>310000001988</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>应勇</t>
+          <t>朱镕基</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省纪律检查委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1805,16 +1805,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>310000002017</v>
+        <v>310000001991</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>应勇</t>
+          <t>黄菊</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省监察部/厅/局厅长'}</t>
+          <t>{'begin_time': Timestamp('1994-10-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1823,16 +1823,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>330100012014</v>
+        <v>310000001991</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>龚正</t>
+          <t>黄菊</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-12-01 00:00:00'), 'location': '中央', 'job_name': '中央海关副署长'}</t>
+          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1841,16 +1841,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>320000001983</v>
+        <v>310000002003</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>顾秀莲</t>
+          <t>韩正</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -1859,16 +1859,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>320000001983</v>
+        <v>310000002017</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>顾秀莲</t>
+          <t>应勇</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央妇女联合会主席'}</t>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省公安部/厅/局副厅长'}</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>320000001995</v>
+        <v>310000002017</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>郑斯林</t>
+          <t>应勇</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2014-05-07 00:00:00'), 'location': '中央', 'job_name': '中央人力资源和社会保障部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省禁毒办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>320500011998</v>
+        <v>310000002017</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>梁保华</t>
+          <t>应勇</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省反恐办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1913,16 +1913,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>320100002002</v>
+        <v>320000001983</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>罗志军</t>
+          <t>顾秀莲</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省南京市', 'job_name': '江苏省南京市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '中央', 'job_name': '中央妇女联合会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1931,16 +1931,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>320000002011</v>
+        <v>320000001989</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>李学勇</t>
+          <t>陈焕友</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术部副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1949,16 +1949,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>320500012014</v>
+        <v>320000001995</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>石泰峰</t>
+          <t>郑斯林</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2010-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校副校长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央企业工作委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -1967,16 +1967,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>140100012014</v>
+        <v>320500011998</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>吴政隆</t>
+          <t>梁保华</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1985,16 +1985,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>330000001993</v>
+        <v>320500011998</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>万学远</t>
+          <t>梁保华</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>330000001993</v>
+        <v>320000002011</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>万学远</t>
+          <t>李学勇</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央外国专家局局长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术部副部长'}</t>
         </is>
       </c>
     </row>
@@ -2021,16 +2021,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>330000001997</v>
+        <v>140100012014</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>柴松岳</t>
+          <t>吴政隆</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央国家电力监管委员会主席'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -2039,16 +2039,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>330000002003</v>
+        <v>330000001988</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>吕祖善</t>
+          <t>沈祖伦</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -2057,16 +2057,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>330000002003</v>
+        <v>330000001991</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>吕祖善</t>
+          <t>葛洪升</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -2075,16 +2075,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>330000002003</v>
+        <v>330000001993</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>吕祖善</t>
+          <t>万学远</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2093,16 +2093,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>330000002012</v>
+        <v>330000001993</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>夏宝龙</t>
+          <t>万学远</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央外国专家局局长'}</t>
         </is>
       </c>
     </row>
@@ -2111,16 +2111,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>340100001999</v>
+        <v>330000001997</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>车俊</t>
+          <t>柴松岳</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '安徽省合肥市', 'job_name': '安徽省合肥市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2129,16 +2129,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>330000002017</v>
+        <v>330000002003</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>袁家军</t>
+          <t>吕祖善</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司五院院长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2147,16 +2147,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>340000001995</v>
+        <v>330000002003</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>回良玉</t>
+          <t>吕祖善</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江省委党校院长'}</t>
         </is>
       </c>
     </row>
@@ -2165,16 +2165,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>340000001995</v>
+        <v>330000002012</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>回良玉</t>
+          <t>夏宝龙</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -2183,16 +2183,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>340000002000</v>
+        <v>330000002012</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>许仲林</t>
+          <t>夏宝龙</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学经济学院经济管理系政治经济学专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -2201,16 +2201,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>340000002003</v>
+        <v>330000002017</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>王金山</t>
+          <t>袁家军</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1996-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司五院副院长'}</t>
         </is>
       </c>
     </row>
@@ -2219,16 +2219,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>340000002003</v>
+        <v>340000001987</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>王金山</t>
+          <t>卢荣景</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -2237,16 +2237,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>520103011990</v>
+        <v>340000001995</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>王三运</t>
+          <t>回良玉</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2255,16 +2255,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>340000002012</v>
+        <v>340100011992</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>李斌</t>
+          <t>王太华</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2273,16 +2273,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>220500001998</v>
+        <v>340000002000</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>李锦斌</t>
+          <t>许仲林</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2291,16 +2291,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>340000002017</v>
+        <v>340000002003</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>李国英</t>
+          <t>王金山</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-05-01 00:00:00'), 'end_time': Timestamp('2011-03-01 00:00:00'), 'location': '中央', 'job_name': '中央水利部/厅/局黄河水利委员会主任、党组书记（副部级）'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2309,16 +2309,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>350000001988</v>
+        <v>340000002003</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>王兆国</t>
+          <t>王金山</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央统战部部长'}</t>
         </is>
       </c>
     </row>
@@ -2345,16 +2345,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>350000001988</v>
+        <v>370100011990</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>王兆国</t>
+          <t>贺国强</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2363,16 +2363,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>350000001994</v>
+        <v>350100011990</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>陈明义</t>
+          <t>习近平</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学人文社会学院马克思主义理论与思想政治教育专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -2381,16 +2381,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>370100011990</v>
+        <v>350100011990</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>贺国强</t>
+          <t>习近平</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部部长'}</t>
+          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '福建省', 'job_name': '福建省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2399,16 +2399,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>370100011990</v>
+        <v>350000002011</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>贺国强</t>
+          <t>苏树林</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司副总裁'}</t>
         </is>
       </c>
     </row>
@@ -2417,16 +2417,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>350100011990</v>
+        <v>350000002011</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>习近平</t>
+          <t>苏树林</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -2435,16 +2435,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>350000002005</v>
+        <v>360000001987</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>黄小晶</t>
+          <t>吴官正</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省机构编制委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2453,16 +2453,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>350000002011</v>
+        <v>360000001987</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>苏树林</t>
+          <t>吴官正</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2471,16 +2471,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>350000002011</v>
+        <v>360000002011</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>苏树林</t>
+          <t>鹿心社</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司董事、高级副总裁'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2489,16 +2489,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>350200012009</v>
+        <v>430600012004</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>于伟国</t>
+          <t>易炼红</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市党委常委会/政治局历任数职'}</t>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-05-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南省委党校副校长'}</t>
         </is>
       </c>
     </row>
@@ -2507,16 +2507,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>360000001987</v>
+        <v>370000001987</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>吴官正</t>
+          <t>姜春云</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -2525,16 +2525,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>360000001987</v>
+        <v>370000001987</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>吴官正</t>
+          <t>姜春云</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2543,16 +2543,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>360000002001</v>
+        <v>370000001989</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>黄智权</t>
+          <t>赵志浩</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2561,16 +2561,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>320200001998</v>
+        <v>370800001990</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>吴新雄</t>
+          <t>韩寓群</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2579,16 +2579,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>360000002011</v>
+        <v>410000001993</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>鹿心社</t>
+          <t>马忠臣</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公厅/室副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -2597,16 +2597,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>330300002003</v>
+        <v>410000001998</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>刘奇</t>
+          <t>李克强</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-03-01 00:00:00'), 'location': '浙江省温州市', 'job_name': '浙江省温州市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2615,16 +2615,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>330300002003</v>
+        <v>410000002003</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>刘奇</t>
+          <t>李成玉</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省西安交通大学应用经济专业博士生'}</t>
+          <t>{'begin_time': Timestamp('1995-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2633,16 +2633,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>440300011998</v>
+        <v>410000002003</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>张高丽</t>
+          <t>李成玉</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>370800001990</v>
+        <v>410000002013</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>韩寓群</t>
+          <t>谢伏瞻</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院发展研究中心副主任'}</t>
         </is>
       </c>
     </row>
@@ -2669,16 +2669,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>370100012004</v>
+        <v>410000002020</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>姜大明</t>
+          <t>尹弘</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市长宁区', 'job_name': '上海市长宁区政府/国务院（综合）副区长'}</t>
         </is>
       </c>
     </row>
@@ -2687,16 +2687,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>370000002013</v>
+        <v>420000001986</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>郭树清</t>
+          <t>郭振乾</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行副行长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央预算工作委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -2705,16 +2705,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>370000002013</v>
+        <v>420000001990</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>郭树清</t>
+          <t>郭树言</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'job_name': '中央外汇管理分局局长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1992-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央三峡工程建设委员会副主任、办公室主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2723,16 +2723,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>410000001993</v>
+        <v>620000001986</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>马忠臣</t>
+          <t>贾志杰</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -2741,16 +2741,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>410000002003</v>
+        <v>420500001992</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>李成玉</t>
+          <t>罗清泉</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2759,16 +2759,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>410000002013</v>
+        <v>420500001992</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>谢伏瞻</t>
+          <t>罗清泉</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院发展研究中心副主任'}</t>
+          <t>{'begin_time': Timestamp('1999-01-02 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2777,16 +2777,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>430224001991</v>
+        <v>430000001989</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>陈润儿</t>
+          <t>陈邦柱</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '湖南省湘潭市', 'job_name': '湖南省湘潭市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -2795,16 +2795,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>620000001986</v>
+        <v>430000001995</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>贾志杰</t>
+          <t>杨正午</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2813,16 +2813,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>620000001986</v>
+        <v>430200001991</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>贾志杰</t>
+          <t>周伯华</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1995-10-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2831,16 +2831,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>420000001995</v>
+        <v>430000002007</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>蒋祝平</t>
+          <t>周强</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'job_name': '中央教育科学文化卫生委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -2849,16 +2849,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>420500001992</v>
+        <v>320700001993</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>罗清泉</t>
+          <t>徐守盛</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省省委党校政治经济学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -2867,16 +2867,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>441300001996</v>
+        <v>430000002013</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>李鸿忠</t>
+          <t>杜家毫</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市杨浦区', 'job_name': '上海市杨浦区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2885,16 +2885,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>430000001989</v>
+        <v>440000001986</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>陈邦柱</t>
+          <t>叶选平</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人口资源环境委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1991-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -2903,16 +2903,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>430000001995</v>
+        <v>440000001986</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>杨正午</t>
+          <t>叶选平</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -2921,16 +2921,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>430600011990</v>
+        <v>440604001990</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>储波</t>
+          <t>卢瑞华</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2939,16 +2939,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>430600011990</v>
+        <v>441400001990</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>储波</t>
+          <t>黄华华</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区内蒙古军区政委'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2957,16 +2957,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>430600011990</v>
+        <v>441400001990</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>储波</t>
+          <t>黄华华</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区人大常委会主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2975,16 +2975,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>430100012000</v>
+        <v>440117011990</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>张云川</t>
+          <t>朱小丹</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会主任、书记'}</t>
+          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2993,16 +2993,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>430200001991</v>
+        <v>440300012015</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>周伯华</t>
+          <t>马兴瑞</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -3011,16 +3011,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>430000002007</v>
+        <v>450600011993</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>周强</t>
+          <t>李兆焯</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -3029,16 +3029,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>320700001993</v>
+        <v>451000002002</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>徐守盛</t>
+          <t>马飚</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广西壮族自治区百色市', 'job_name': '广西壮族自治区百色市政府/国务院（综合）行署专员'}</t>
         </is>
       </c>
     </row>
@@ -3047,16 +3047,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>430000002017</v>
+        <v>450100012012</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>许达哲</t>
+          <t>陈武</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司党组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）副秘书长（正厅）、办公厅副主任'}</t>
         </is>
       </c>
     </row>
@@ -3065,16 +3065,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>430000002017</v>
+        <v>450100012012</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>许达哲</t>
+          <t>陈武</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理'}</t>
+          <t>{'begin_time': Timestamp('2000-04-02 00:00:00'), 'end_time': Timestamp('2003-04-02 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区发展研究中心主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -3083,16 +3083,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>440604001990</v>
+        <v>460000001990</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>卢瑞华</t>
+          <t>刘剑锋</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'job_name': '中央华侨委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国民用航空总局局长'}</t>
         </is>
       </c>
     </row>
@@ -3101,16 +3101,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>441400001990</v>
+        <v>460000011993</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>黄华华</t>
+          <t>阮崇武</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-11-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3119,16 +3119,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>440117011990</v>
+        <v>460000001998</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>朱小丹</t>
+          <t>汪啸风</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广东省', 'job_name': '广东省宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3137,16 +3137,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>440300012015</v>
+        <v>460000002004</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>马兴瑞</t>
+          <t>卫留成</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国海洋石油总公司总经理、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -3155,16 +3155,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>450600011993</v>
+        <v>350800002002</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>李兆焯</t>
+          <t>刘赐贵</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2013-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市海洋与渔业局党组书记、局长'}</t>
         </is>
       </c>
     </row>
@@ -3173,16 +3173,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>450100012012</v>
+        <v>350800002002</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>陈武</t>
+          <t>刘赐贵</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）秘书长、办公厅主任'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市厦门大学研究生院海洋科学专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -3191,16 +3191,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>460000001990</v>
+        <v>460000002017</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>刘剑锋</t>
+          <t>沈晓明</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央外事委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
         </is>
       </c>
     </row>
@@ -3209,16 +3209,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>460000001998</v>
+        <v>460000002017</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>汪啸风</t>
+          <t>沈晓明</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
         </is>
       </c>
     </row>
@@ -3227,16 +3227,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>460000002004</v>
+        <v>460000002017</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>卫留成</t>
+          <t>沈晓明</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海儿童医学中心院长'}</t>
         </is>
       </c>
     </row>
@@ -3245,16 +3245,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>460000002007</v>
+        <v>500000001999</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>罗保铭</t>
+          <t>包叙定</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-02-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3263,16 +3263,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>321182011994</v>
+        <v>500000002003</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>蒋定之</t>
+          <t>王鸿举</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校函授学院省部级干部在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3281,16 +3281,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>321182011994</v>
+        <v>500000002003</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>蒋定之</t>
+          <t>王鸿举</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -3299,16 +3299,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>350800002002</v>
+        <v>420600012008</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>刘赐贵</t>
+          <t>唐良智</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '福建省龙岩市', 'job_name': '福建省龙岩市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中科技大学（华中工学院）西方经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -3317,16 +3317,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>350800002002</v>
+        <v>510000001988</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>刘赐贵</t>
+          <t>张皓若</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校科学社会主义专业学员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3335,16 +3335,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>460000002017</v>
+        <v>510000001996</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>沈晓明</t>
+          <t>宋宝瑞</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央经济体制改革委员会副主任、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3353,16 +3353,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>460000002017</v>
+        <v>510000001999</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>沈晓明</t>
+          <t>张中伟</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3371,16 +3371,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>460000002017</v>
+        <v>330300011998</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>沈晓明</t>
+          <t>蒋巨峰</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）校长'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省温州市', 'job_name': '浙江省温州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3389,16 +3389,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>460000002017</v>
+        <v>330300011998</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>沈晓明</t>
+          <t>蒋巨峰</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）主任'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -3407,16 +3407,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>500000001999</v>
+        <v>511800012000</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>包叙定</t>
+          <t>魏宏</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '四川省雅安市', 'job_name': '四川省雅安市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3425,16 +3425,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>500000002003</v>
+        <v>510000002016</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>王鸿举</t>
+          <t>尹力</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '中央', 'job_name': '中央政策研究室社会发展司巡视员'}</t>
         </is>
       </c>
     </row>
@@ -3443,16 +3443,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>500000002010</v>
+        <v>520000001983</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>黄奇帆</t>
+          <t>王朝文</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3461,16 +3461,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>500000002010</v>
+        <v>440100001997</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>黄奇帆</t>
+          <t>林树森</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1996-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市政府/国务院（综合）副市长、代市长、市长'}</t>
         </is>
       </c>
     </row>
@@ -3479,16 +3479,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>500000002010</v>
+        <v>370282011990</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>黄奇帆</t>
+          <t>赵克志</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2011-02-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市重庆市行政学院院长'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班科学社会主义专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3497,16 +3497,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>420600012008</v>
+        <v>370282011990</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>唐良智</t>
+          <t>赵克志</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市东湖新技术开发区管委会主任、工委副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '山东省德州市', 'job_name': '山东省德州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3515,16 +3515,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>510000001996</v>
+        <v>420500001997</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>宋宝瑞</t>
+          <t>孙志刚</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1999-03-02 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '湖北省宜昌市', 'job_name': '湖北省宜昌市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3533,16 +3533,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>510000001996</v>
+        <v>530000001983</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>宋宝瑞</t>
+          <t>普朝柱</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协提案委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -3551,16 +3551,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>510000001999</v>
+        <v>530000001986</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>张中伟</t>
+          <t>和志强</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -3569,16 +3569,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>330300011998</v>
+        <v>530000002015</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>蒋巨峰</t>
+          <t>陈豪</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -3587,16 +3587,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>330300011998</v>
+        <v>530000002015</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>蒋巨峰</t>
+          <t>陈豪</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -3605,16 +3605,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>330300011998</v>
+        <v>540000001986</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>蒋巨峰</t>
+          <t>多吉才让</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '四川省', 'job_name': '四川省省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民政部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -3623,16 +3623,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>511800012000</v>
+        <v>540000001990</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>魏宏</t>
+          <t>江村罗布</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '四川省', 'job_name': '四川省组织部部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3641,16 +3641,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>510000002016</v>
+        <v>540000001990</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>尹力</t>
+          <t>江村罗布</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '中央', 'job_name': '中央卫生部/厅/局国际合作司司长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大民族委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3659,16 +3659,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>520000001993</v>
+        <v>540100011991</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>陈士能</t>
+          <t>列确</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中国轻工业联合会会长'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -3677,16 +3677,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>420100011992</v>
+        <v>540500001993</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>钱运录</t>
+          <t>向巴平措</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3695,16 +3695,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>420100011992</v>
+        <v>540500002000</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>钱运录</t>
+          <t>白玛赤林</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区山南地区', 'job_name': '西藏自治区山南地区政府/国务院（综合）行署专员'}</t>
         </is>
       </c>
     </row>
@@ -3713,16 +3713,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>520000002001</v>
+        <v>540500002000</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>石秀诗</t>
+          <t>白玛赤林</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校研究生院在职研究生班党的学说与党的建设专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3731,16 +3731,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>440100001997</v>
+        <v>542400001993</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>林树森</t>
+          <t>洛桑江村</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1995-09-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3749,16 +3749,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>370282011990</v>
+        <v>610000001988</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>赵克志</t>
+          <t>侯宗宾</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）副省长、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大内务司法委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3767,16 +3767,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>520000002013</v>
+        <v>610100011991</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>陈敏尔</t>
+          <t>程安东</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3785,16 +3785,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>420500001997</v>
+        <v>610000002002</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>孙志刚</t>
+          <t>贾治邦</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1994-01-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3803,16 +3803,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>420500001997</v>
+        <v>610000002013</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>孙志刚</t>
+          <t>娄勤俭</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省直属机关工作委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -3821,16 +3821,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>520600002003</v>
+        <v>610000002013</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>谌贻琴</t>
+          <t>娄勤俭</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省铜仁市', 'job_name': '贵州省铜仁市政府/国务院（综合）专员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -3839,16 +3839,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>530000002001</v>
+        <v>610000002016</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>徐荣凯</t>
+          <t>胡和平</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学土木水利学院历任数职'}</t>
         </is>
       </c>
     </row>
@@ -3857,16 +3857,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>430100011993</v>
+        <v>620000001983</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>秦光荣</t>
+          <t>陈光毅</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3875,16 +3875,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>451200001993</v>
+        <v>620000001983</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>李纪恒</t>
+          <t>陈光毅</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3893,16 +3893,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>451200001993</v>
+        <v>620000001993</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>李纪恒</t>
+          <t>阎海旺</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行副行长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3911,16 +3911,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>451200001993</v>
+        <v>620000001993</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>李纪恒</t>
+          <t>阎海旺</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央金融工作委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -3929,16 +3929,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>530000002015</v>
+        <v>140100011990</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>陈豪</t>
+          <t>孙英</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市人大常委会副主任'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央党史研究室主任'}</t>
         </is>
       </c>
     </row>
@@ -3947,16 +3947,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>530000002015</v>
+        <v>620100011996</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>陈豪</t>
+          <t>陆浩</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市总工会主席'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3965,16 +3965,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>540100011991</v>
+        <v>620100011996</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>列确</t>
+          <t>陆浩</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校省部级在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3983,16 +3983,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>540100011991</v>
+        <v>230100002011</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>列确</t>
+          <t>林铎</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-02 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '北京市', 'job_name': '北京市市政管理委员会副主任、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -4001,16 +4001,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>540500001993</v>
+        <v>620000002017</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>向巴平措</t>
+          <t>唐仁健</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '四川省成都市', 'job_name': '四川省成都市西南财经大学经济学院产业经济学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -4019,16 +4019,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>540500001993</v>
+        <v>620000002017</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>向巴平措</t>
+          <t>唐仁健</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
         </is>
       </c>
     </row>
@@ -4037,16 +4037,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>540500002000</v>
+        <v>630000001986</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>白玛赤林</t>
+          <t>宋瑞祥</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央国家环境保护总局副局长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -4055,16 +4055,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>540500002000</v>
+        <v>630000001986</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>白玛赤林</t>
+          <t>宋瑞祥</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）秘书长（副部）'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央全国矿产资源委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4073,16 +4073,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>542400001993</v>
+        <v>630000001993</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>洛桑江村</t>
+          <t>田成平</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4091,16 +4091,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>533401011994</v>
+        <v>630100011997</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>齐扎拉</t>
+          <t>赵乐际</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '云南省迪庆藏族自治州', 'job_name': '云南省迪庆藏族自治州政府/国务院（综合）州长'}</t>
+          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'job_name': '青海省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -4109,16 +4109,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>610100011991</v>
+        <v>630000002004</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>程安东</t>
+          <t>杨传堂</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'job_name': '中央经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
         </is>
       </c>
     </row>
@@ -4127,16 +4127,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>610100012004</v>
+        <v>630000002005</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>袁纯清</t>
+          <t>宋秀岩</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4145,16 +4145,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>341000011993</v>
+        <v>630000002010</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>赵正永</t>
+          <t>骆惠宁</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -4163,16 +4163,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>610000002013</v>
+        <v>630000002010</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>娄勤俭</t>
+          <t>骆惠宁</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省中国科学技术大学商学院管理科学与工程专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -4181,16 +4181,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>620000001983</v>
+        <v>630000002010</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>陈光毅</t>
+          <t>骆惠宁</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央华侨委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国人民大学经济学院政治经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4199,16 +4199,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>620000001993</v>
+        <v>630000002013</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>阎海旺</t>
+          <t>郝鹏</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国银行业监督管理委员会副主席、党委书记'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '甘肃省兰州市', 'job_name': '甘肃省兰州市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -4217,16 +4217,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>140100011990</v>
+        <v>640000001987</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>孙英</t>
+          <t>白立忱</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央党史研究室主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4235,16 +4235,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>620000001998</v>
+        <v>640000001987</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>宋照肃</t>
+          <t>白立忱</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会主任'}</t>
         </is>
       </c>
     </row>
@@ -4253,16 +4253,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>620100011996</v>
+        <v>640000001998</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>陆浩</t>
+          <t>马启智</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4271,16 +4271,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>620100011996</v>
+        <v>640100012001</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>陆浩</t>
+          <t>王正伟</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中央民族学院少数民族经济研究所民族经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4289,16 +4289,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>230100002011</v>
+        <v>640000002016</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>林铎</t>
+          <t>咸辉</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '北京市西城区', 'job_name': '北京市西城区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省统战部副部长'}</t>
         </is>
       </c>
     </row>
@@ -4307,16 +4307,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>620000002017</v>
+        <v>650000001980</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>唐仁健</t>
+          <t>司马义·艾买提</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -4325,16 +4325,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>630000001993</v>
+        <v>650000001986</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>田成平</t>
+          <t>铁木尔·达瓦买提</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4343,16 +4343,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>630000001997</v>
+        <v>650000001994</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>白恩培</t>
+          <t>阿不来提·阿不都热西提</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4361,16 +4361,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>630100011997</v>
+        <v>653100001991</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>赵乐际</t>
+          <t>司马义·铁力瓦尔地</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4379,16 +4379,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>630100011997</v>
+        <v>650100001998</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>赵乐际</t>
+          <t>努尔·白克力</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -4397,16 +4397,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>630000002010</v>
+        <v>650000002015</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>骆惠宁</t>
+          <t>雪克来提·扎克尔</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4415,16 +4415,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>630000002013</v>
+        <v>110000011995</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>郝鹏</t>
+          <t>尉健行</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -4433,16 +4433,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>640000001987</v>
+        <v>110000011995</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>白立忱</t>
+          <t>尉健行</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4451,16 +4451,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>640000001987</v>
+        <v>110000011995</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>白立忱</t>
+          <t>尉健行</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会主任'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -4469,16 +4469,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>640000001998</v>
+        <v>350400001998</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>马启智</t>
+          <t>蔡奇</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省衢州市', 'job_name': '浙江省衢州市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4487,16 +4487,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>640000002013</v>
+        <v>210200012001</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>孙春兰</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）副主席、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4505,16 +4505,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>640000002016</v>
+        <v>130000012001</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>咸辉</t>
+          <t>王旭东</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省老干部局局长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4523,16 +4523,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>640000002016</v>
+        <v>430500011996</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>咸辉</t>
+          <t>周本顺</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-02 00:00:00'), 'end_time': Timestamp('2007-03-02 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南大学商学院管理工程专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4541,16 +4541,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>650000001980</v>
+        <v>140000011991</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>司马义·艾买提</t>
+          <t>王茂林</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -4559,16 +4559,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>650000001994</v>
+        <v>150000011995</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>阿不来提·阿不都热西提</t>
+          <t>刘明祖</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1997-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4577,16 +4577,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>653100001991</v>
+        <v>210000011985</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>司马义·铁力瓦尔地</t>
+          <t>李贵鲜</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4595,16 +4595,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>650100001998</v>
+        <v>620000011991</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>努尔·白克力</t>
+          <t>顾金池</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -4613,16 +4613,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>650000002015</v>
+        <v>620000011991</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>雪克来提·扎克尔</t>
+          <t>顾金池</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央内务司法委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4631,16 +4631,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>650000002015</v>
+        <v>222400011990</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>雪克来提·扎克尔</t>
+          <t>张德江</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'job_name': '天津市天津大学管理学院工商管理专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4649,16 +4649,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>210200012001</v>
+        <v>220000012010</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>孙春兰</t>
+          <t>孙政才</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '北京市顺义区', 'job_name': '北京市顺义区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -4667,16 +4667,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>210200012001</v>
+        <v>230000011998</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>孙春兰</t>
+          <t>徐有芳</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4685,16 +4685,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>130000012001</v>
+        <v>230000011998</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>王旭东</t>
+          <t>徐有芳</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局部长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4703,16 +4703,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>130000012001</v>
+        <v>310000011991</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>王旭东</t>
+          <t>吴邦国</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央信息化工作办公室/信息化领导小组主任'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -4721,16 +4721,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>460000012002</v>
+        <v>310000011991</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>白克明</t>
+          <t>吴邦国</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央企业工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4739,16 +4739,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>430500011996</v>
+        <v>310000011991</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>周本顺</t>
+          <t>吴邦国</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会机关党委书记'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -4757,16 +4757,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>430500011996</v>
+        <v>330000011989</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>周本顺</t>
+          <t>李泽民</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会副秘书长'}</t>
+          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4775,16 +4775,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>140000011991</v>
+        <v>330000012007</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>王茂林</t>
+          <t>赵洪祝</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央法律委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -4793,16 +4793,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>150000011995</v>
+        <v>330000012007</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>刘明祖</t>
+          <t>赵洪祝</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -4811,16 +4811,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>210000011985</v>
+        <v>340000011983</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>李贵鲜</t>
+          <t>黄璜</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族和宗教委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -4829,16 +4829,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>222400011990</v>
+        <v>350000012001</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>张德江</t>
+          <t>宋德福</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4847,16 +4847,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>222400011990</v>
+        <v>350000012013</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>张德江</t>
+          <t>尤权</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -4865,16 +4865,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>220000012010</v>
+        <v>430000011978</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>孙政才</t>
+          <t>毛致用</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4883,16 +4883,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>230000011998</v>
+        <v>630000012007</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>徐有芳</t>
+          <t>强卫</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央农村工作领导小组副组长（正部级）'}</t>
+          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4901,16 +4901,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>230000012008</v>
+        <v>610000011998</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>吉炳轩</t>
+          <t>李建国</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会办公室主任'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4919,16 +4919,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>230000012008</v>
+        <v>370000012008</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>吉炳轩</t>
+          <t>姜异康</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部常务副部长（正部长级）'}</t>
+          <t>{'begin_time': Timestamp('1995-07-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4937,16 +4937,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>310000011991</v>
+        <v>370000012008</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>吴邦国</t>
+          <t>姜异康</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员长'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会办公室委员'}</t>
         </is>
       </c>
     </row>
@@ -4955,16 +4955,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>310000011991</v>
+        <v>370000012017</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>吴邦国</t>
+          <t>刘家义</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4973,16 +4973,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>370200001990</v>
+        <v>370000012017</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>俞正声</t>
+          <t>刘家义</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
         </is>
       </c>
     </row>
@@ -4991,16 +4991,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>370200001990</v>
+        <v>540000011993</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>俞正声</t>
+          <t>陈奎元</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5009,16 +5009,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>320100012002</v>
+        <v>410000012005</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>李源潮</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部副部长'}</t>
         </is>
       </c>
     </row>
@@ -5027,16 +5027,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>330000012007</v>
+        <v>410000012005</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>赵洪祝</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会常委'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央广播电影电视部/厅/局局长'}</t>
         </is>
       </c>
     </row>
@@ -5045,16 +5045,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>330000012007</v>
+        <v>410000012005</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>赵洪祝</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部常务副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央广播电影电视部/厅/局党组书记'}</t>
         </is>
       </c>
     </row>
@@ -5063,16 +5063,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>350000012001</v>
+        <v>410000012005</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>宋德福</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-01-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央维护稳定工作小组成员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5081,16 +5081,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>350000012013</v>
+        <v>410000012005</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>尤权</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5099,16 +5099,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>360000011997</v>
+        <v>410000012005</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>舒惠国</t>
+          <t>徐光春</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会委员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5117,16 +5117,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>360000012001</v>
+        <v>420000011983</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>孟建柱</t>
+          <t>关广富</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5135,16 +5135,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>220300011990</v>
+        <v>430000012006</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>苏荣</t>
+          <t>张春贤</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -5153,16 +5153,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>630000012007</v>
+        <v>430000012006</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>强卫</t>
+          <t>张春贤</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市哈尔滨工业大学管理科学与工程专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -5171,16 +5171,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>630000012007</v>
+        <v>340700001988</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>强卫</t>
+          <t>汪洋</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5189,16 +5189,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>610000011998</v>
+        <v>450000011985</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>李建国</t>
+          <t>陈辉光</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政协常委会主席、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -5207,16 +5207,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>370000012008</v>
+        <v>450000011991</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>姜异康</t>
+          <t>赵富林</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5225,16 +5225,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>370000012017</v>
+        <v>430300011990</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>刘家义</t>
+          <t>曹伯纯</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5243,16 +5243,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>370000012017</v>
+        <v>450000012006</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>刘家义</t>
+          <t>刘奇葆</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5261,16 +5261,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>540000011993</v>
+        <v>230100001990</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>陈奎元</t>
+          <t>张德邻</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院党组书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'job_name': '中央直属机关工作委员会正部长级副书记'}</t>
         </is>
       </c>
     </row>
@@ -5279,16 +5279,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>540000011993</v>
+        <v>500000012002</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>陈奎元</t>
+          <t>黄镇东</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院院长'}</t>
+          <t>{'begin_time': Timestamp('1991-02-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5297,16 +5297,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>540000011993</v>
+        <v>500000012002</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>陈奎元</t>
+          <t>黄镇东</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1993-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央社会治安综合治理委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -5315,16 +5315,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>430000012006</v>
+        <v>510000011983</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>张春贤</t>
+          <t>杨汝岱</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5333,16 +5333,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>340700001988</v>
+        <v>510000011993</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>汪洋</t>
+          <t>谢世杰</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5351,16 +5351,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>430300011990</v>
+        <v>370500011990</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>曹伯纯</t>
+          <t>周永康</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5369,16 +5369,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>450000012006</v>
+        <v>510000012003</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>刘奇葆</t>
+          <t>张学忠</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5387,16 +5387,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>450000012008</v>
+        <v>510000012013</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>郭声琨</t>
+          <t>王东明</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京科技大学经济管理学院博士研究生班管理科学与工程专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部干部二局局长'}</t>
         </is>
       </c>
     </row>
@@ -5405,16 +5405,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>450000012013</v>
+        <v>520000011986</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>彭清华</t>
+          <t>胡锦涛</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央对外联络工作委员会驻港联络办副主任'}</t>
+          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -5423,16 +5423,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>460000011998</v>
+        <v>520000011986</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>杜青林</t>
+          <t>胡锦涛</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '中央', 'job_name': '中央农业部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -5441,16 +5441,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>500000012002</v>
+        <v>520000011993</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>黄镇东</t>
+          <t>刘方仁</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-06-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省贵州省军区书记'}</t>
         </is>
       </c>
     </row>
@@ -5459,16 +5459,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>500000012002</v>
+        <v>622900011990</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>黄镇东</t>
+          <t>石宗源</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央新闻出版署/版权局局长'}</t>
         </is>
       </c>
     </row>
@@ -5477,16 +5477,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>370500011990</v>
+        <v>622900011990</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>周永康</t>
+          <t>石宗源</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员'}</t>
         </is>
       </c>
     </row>
@@ -5495,16 +5495,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>370500011990</v>
+        <v>370500001993</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>周永康</t>
+          <t>张庆黎</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央公安部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
         </is>
       </c>
     </row>
@@ -5513,16 +5513,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>370500011990</v>
+        <v>540000012017</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>周永康</t>
+          <t>吴英杰</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区教育部/厅/局厅长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -5531,16 +5531,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>370500011990</v>
+        <v>540000012017</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>周永康</t>
+          <t>吴英杰</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校研究生院在职研究生班中共党史专业学员'}</t>
         </is>
       </c>
     </row>
@@ -5549,16 +5549,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>370500011990</v>
+        <v>610100011990</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>周永康</t>
+          <t>安启元</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -5567,16 +5567,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>510000012003</v>
+        <v>630000011986</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>张学忠</t>
+          <t>尹克升</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大民族委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -5585,16 +5585,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>510000012013</v>
+        <v>640000011998</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>王东明</t>
+          <t>毛如柏</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5603,16 +5603,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>520000011986</v>
+        <v>450303002013</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>胡锦涛</t>
+          <t>陈建国</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局总书记'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5621,16 +5621,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>520000011986</v>
+        <v>640000012013</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>胡锦涛</t>
+          <t>李建华</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '四川省', 'job_name': '四川省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -5639,16 +5639,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>622900011990</v>
+        <v>650000011995</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>石宗源</t>
+          <t>王乐泉</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央新闻出版署/版权局局长'}</t>
+          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5657,16 +5657,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>622900011990</v>
+        <v>540000001981</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>石宗源</t>
+          <t>阿沛阿旺晋美</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员'}</t>
+          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5675,16 +5675,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>530000011998</v>
+        <v>110000002017</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>令狐安</t>
+          <t>陈吉宁</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2010-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局审计长（正部长级）、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
         </is>
       </c>
     </row>
@@ -5693,16 +5693,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>370500001993</v>
+        <v>620000001980</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>张庆黎</t>
+          <t>冯纪新</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
+          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'job_name': '中央顾问委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -5711,16 +5711,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>370500001993</v>
+        <v>340000001989</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>张庆黎</t>
+          <t>傅锡寿</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校省部级干部在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -5729,16 +5729,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>540000012017</v>
+        <v>120000001980</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>吴英杰</t>
+          <t>胡启立</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5747,16 +5747,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>640000011998</v>
+        <v>510000001985</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>毛如柏</t>
+          <t>蒋民宽</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员、主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央教科文卫体委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5765,16 +5765,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>450303002013</v>
+        <v>450000002003</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>陈建国</t>
+          <t>陆兵</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2010-07-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5783,16 +5783,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>232700011991</v>
+        <v>310000011985</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>张毅</t>
+          <t>芮杏文</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '河北省', 'job_name': '河北省纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -5801,16 +5801,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>232700011991</v>
+        <v>330200002016</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>张毅</t>
+          <t>唐一军</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '浙江省舟山市', 'job_name': '浙江省舟山市党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -5819,16 +5819,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>640000012013</v>
+        <v>360000011985</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>李建华</t>
+          <t>万绍芬</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -5837,16 +5837,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>650000011995</v>
+        <v>360000011985</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>王乐泉</t>
+          <t>万绍芬</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2010-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央内务司法委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5855,16 +5855,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>650000011995</v>
+        <v>520100012000</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>王乐泉</t>
+          <t>王晓东</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5873,196 +5873,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>540000001981</v>
+        <v>540000011985</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>阿沛阿旺晋美</t>
+          <t>伍精华</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>110000002017</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>陈吉宁</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>620000001980</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>冯纪新</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'job_name': '中央顾问委员会委员'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>340000001989</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>傅锡寿</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>120000001980</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>胡启立</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'job_name': '中央宋庆龄基金会主席'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>370000002020</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>李干杰</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2002-07-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央国家环境保护总局核安全司司长'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>630000002019</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>刘宁</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'job_name': '中央水利部/厅/局总工程师'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>450000002003</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>陆兵</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>350000002018</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>唐登杰</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>330200002016</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>唐一军</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省纪律检查委员会常委'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>520100012000</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>王晓东</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>

--- a/annual_data/2001.xlsx
+++ b/annual_data/2001.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人力资源和社会保障部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 10, 'job_name': '北京市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 9, 'job_name': '北京市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央经济体制改革委员会办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央经济体制改革委员会办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 9, 'job_name': '天津市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 8, 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 9, 'job_name': '天津市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-06-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行行长'}</t>
+          <t>{'begin_time': Timestamp('1995-06-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央中国人民银行行长'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行货币政策委员会主席'}</t>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央中国人民银行货币政策委员会主席'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2004-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学经济管理学院数量经济学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2004-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 7, 'job_name': '北京市清华大学经济管理学院数量经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国兵器工业总公司副总经理'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国兵器工业总公司副总经理'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国北方工业公司党委书记、副总裁'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国北方工业公司党委书记、副总裁'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国万宝工程集团董事长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国万宝工程集团董事长'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '香港特别行政区', 'job_name': '香港特别行政区香港银华国际集团发展有限公司董事长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '香港特别行政区', 'type': '中央企业', 'rank': 7, 'job_name': '香港特别行政区香港银华国际集团发展有限公司董事长'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河北省', 'job_name': '河北省人大常委会主任（严重违纪）'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河北省', 'type': '人大', 'rank': 9, 'job_name': '河北省人大常委会主任（严重违纪）'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 9, 'job_name': '江苏省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 8, 'job_name': '河北省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 0, 'job_name': '河南省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '广东省深圳市', 'type': '政府/国务院', 'rank': 0, 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）常委副市长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 8, 'job_name': '北京市政府/国务院（综合）常委副市长'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 8, 'job_name': '江西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央华能集团公司总经理'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司总经理'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'job_name': '浙江省金华市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'type': '党委', 'rank': 7, 'job_name': '浙江省金华市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'job_name': '浙江省金华市政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省金华市', 'type': '党委', 'rank': 7, 'job_name': '浙江省金华市政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '湖南省湘潭市', 'job_name': '湖南省湘潭市湘潭钢铁公司总经理、执行董事'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '湖南省湘潭市', 'type': '地方企业', 'rank': 7, 'job_name': '湖南省湘潭市湘潭钢铁公司总经理、执行董事'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'job_name': '内蒙古自治区呼和浩特市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'type': '党委', 'rank': 0, 'job_name': '内蒙古自治区呼和浩特市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区法制办公室主任'}</t>
+          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '内蒙古自治区法制办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 10, 'job_name': '广东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 8, 'job_name': '辽宁省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '政府/国务院', 'rank': 8, 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会纪检组组长'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央科学技术委员会纪检组组长'}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国家行政学院院长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 10, 'job_name': '中央国家行政学院院长'}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）机关党组书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）秘书长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国家机关工作委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'job_name': '中央国家电力公司副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央国家电力公司副部长'}</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 9, 'job_name': '吉林省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 9, 'job_name': '吉林省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 8, 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行行长助理'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央中国人民银行行长助理'}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政策研究室副主任、党组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '黑龙江省政策研究室副主任、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市经济技术开发区管委会副主任'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'type': '党委', 'rank': 6, 'job_name': '陕西省西安市经济技术开发区管委会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市科学技术协会副主席'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省西安市', 'type': '行业协会_人民团体', 'rank': 6, 'job_name': '陕西省西安市科学技术协会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局部长(免职）'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局部长(免职）'}</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 9, 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 8, 'job_name': '陕西省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'job_name': '中央铁道部/厅/局政治部党组成员、政治部主任、中央精神文明建设指导委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央铁道部/厅/局政治部党组成员、政治部主任、中央精神文明建设指导委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中关村科技园区管委会主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 7, 'job_name': '北京市中关村科技园区管委会主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市海淀区', 'job_name': '北京市海淀区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市海淀区', 'type': '党委', 'rank': 7, 'job_name': '北京市海淀区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局总书记'}</t>
+          <t>{'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局总书记'}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）总理'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 11, 'job_name': '中央政府/国务院（综合）总理'}</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-10-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1994-10-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 10, 'job_name': '上海市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省公安部/厅/局副厅长'}</t>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省公安部/厅/局副厅长'}</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省禁毒办公室主任'}</t>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省禁毒办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省反恐办公室主任'}</t>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省反恐办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '中央', 'job_name': '中央妇女联合会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 9, 'job_name': '中央妇女联合会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '江苏省', 'type': '人大', 'rank': 9, 'job_name': '江苏省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央企业工作委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央企业工作委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 8, 'job_name': '江苏省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 8, 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术部副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央科学技术部副部长'}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'type': '政府/国务院', 'rank': 7, 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央财政经济委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央外国专家局局长'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央外国专家局局长'}</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 9, 'job_name': '浙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'type': '学校', 'rank': 8, 'job_name': '浙江省浙江省委党校院长'}</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 8, 'job_name': '天津市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学经济学院经济管理系政治经济学专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市北京大学经济学院经济管理系政治经济学专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司五院副院长'}</t>
+          <t>{'begin_time': Timestamp('1996-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央中国航天科技集团公司五院副院长'}</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '安徽省', 'type': '政协', 'rank': 9, 'job_name': '安徽省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 9, 'job_name': '江苏省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 9, 'job_name': '安徽省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 9, 'job_name': '安徽省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会副主任'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央供销合作社理事会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社党组书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央供销合作社党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央统战部部长'}</t>
+          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央统战部部长'}</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'type': '党委', 'rank': 9, 'job_name': '重庆市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学人文社会学院马克思主义理论与思想政治教育专业博士生'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市清华大学人文社会学院马克思主义理论与思想政治教育专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '福建省', 'job_name': '福建省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '福建省', 'type': '政府/国务院', 'rank': 9, 'job_name': '福建省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司副总裁'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司副总裁'}</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 10, 'job_name': '山东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国土资源部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-05-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南省委党校副校长'}</t>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-05-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 7, 'job_name': '湖南省湖南省委党校副校长'}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'type': '人大', 'rank': 9, 'job_name': '山东省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公厅/室副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央财经领导小组办公厅/室副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1995-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 8, 'job_name': '河南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 8, 'job_name': '河南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院发展研究中心副主任'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国务院发展研究中心副主任'}</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市长宁区', 'job_name': '上海市长宁区政府/国务院（综合）副区长'}</t>
+          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市长宁区', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市长宁区政府/国务院（综合）副区长'}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央预算工作委员会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央预算工作委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央三峡工程建设委员会副主任、办公室主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1992-12-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央三峡工程建设委员会副主任、办公室主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 8, 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-01-02 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-01-02 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '湖北省武汉市', 'type': '党委', 'rank': 8, 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-10-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1995-10-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 8, 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 9, 'job_name': '中央共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省省委党校政治经济学专业学员'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '江苏省', 'type': '学校', 'rank': 0, 'job_name': '江苏省省委党校政治经济学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市杨浦区', 'job_name': '上海市杨浦区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市杨浦区', 'type': '党委', 'rank': 7, 'job_name': '上海市杨浦区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1991-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1991-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '广东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 8, 'job_name': '广东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广东省广州市', 'type': '党委', 'rank': 8, 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1996-12-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '广东省广州市', 'type': '党委', 'rank': 7, 'job_name': '广东省广州市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广西壮族自治区百色市', 'job_name': '广西壮族自治区百色市政府/国务院（综合）行署专员'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '广西壮族自治区百色市', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区百色市政府/国务院（综合）行署专员'}</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）副秘书长（正厅）、办公厅副主任'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区政府/国务院（综合）副秘书长（正厅）、办公厅副主任'}</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-04-02 00:00:00'), 'end_time': Timestamp('2003-04-02 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区发展研究中心主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2000-04-02 00:00:00'), 'end_time': Timestamp('2003-04-02 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区发展研究中心主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国民用航空总局局长'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央中国民用航空总局局长'}</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '海南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '海南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国海洋石油总公司总经理、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央中国海洋石油总公司总经理、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市海洋与渔业局党组书记、局长'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '福建省厦门市', 'type': '政府/国务院', 'rank': 7, 'job_name': '福建省厦门市海洋与渔业局党组书记、局长'}</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市厦门大学研究生院海洋科学专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-07-01 00:00:00'), 'location': '福建省厦门市', 'type': '学校', 'rank': 7, 'job_name': '福建省厦门市厦门大学研究生院海洋科学专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
+          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'type': '其他', 'rank': 4, 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 4, 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海儿童医学中心院长'}</t>
+          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '上海市', 'type': '其他', 'rank': 5, 'job_name': '上海市上海儿童医学中心院长'}</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 9, 'job_name': '重庆市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'type': '党委', 'rank': 0, 'job_name': '重庆市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 0, 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中科技大学（华中工学院）西方经济学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 7, 'job_name': '湖北省武汉市华中科技大学（华中工学院）西方经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央经济体制改革委员会副主任、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央经济体制改革委员会副主任、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省温州市', 'job_name': '浙江省温州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省温州市', 'type': '党委', 'rank': 7, 'job_name': '浙江省温州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '四川省雅安市', 'job_name': '四川省雅安市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '四川省雅安市', 'type': '党委', 'rank': 7, 'job_name': '四川省雅安市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '中央', 'job_name': '中央政策研究室社会发展司巡视员'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 6, 'job_name': '中央政策研究室社会发展司巡视员'}</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央民族委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市政府/国务院（综合）副市长、代市长、市长'}</t>
+          <t>{'begin_time': Timestamp('1996-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '广东省广州市', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省广州市政府/国务院（综合）副市长、代市长、市长'}</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班科学社会主义专业学员'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校在职研究生班科学社会主义专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '山东省德州市', 'job_name': '山东省德州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '山东省德州市', 'type': '党委', 'rank': 7, 'job_name': '山东省德州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-03-02 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '湖北省宜昌市', 'job_name': '湖北省宜昌市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-03-02 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '湖北省宜昌市', 'type': '党委', 'rank': 7, 'job_name': '湖北省宜昌市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副秘书长'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 7, 'job_name': '上海市党委常委会/政治局副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 7, 'job_name': '上海市办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民政部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央民政部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大民族委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大民族委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区山南地区', 'job_name': '西藏自治区山南地区政府/国务院（综合）行署专员'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区山南地区', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区山南地区政府/国务院（综合）行署专员'}</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校研究生院在职研究生班党的学说与党的建设专业学员'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校研究生院在职研究生班党的学说与党的建设专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-09-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1995-09-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区拉萨市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大内务司法委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大内务司法委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '陕西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-01-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('1994-01-01 00:00:00'), 'end_time': Timestamp('2002-05-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '陕西省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 8, 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学土木水利学院历任数职'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 5, 'job_name': '北京市清华大学土木水利学院历任数职'}</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央财政经济委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行副行长、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央中国人民银行副行长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央金融工作委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央金融工作委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央党史研究室主任'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央党史研究室主任'}</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 0, 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校省部级在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中央党校省部级在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '北京市', 'job_name': '北京市市政管理委员会副主任、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 7, 'job_name': '北京市市政管理委员会副主任、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '四川省成都市', 'job_name': '四川省成都市西南财经大学经济学院产业经济学专业学员'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '四川省成都市', 'type': '学校', 'rank': 6, 'job_name': '四川省成都市西南财经大学经济学院产业经济学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 6, 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央国家环境保护总局副局长、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家环境保护总局副局长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央全国矿产资源委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央全国矿产资源委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 9, 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'job_name': '青海省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 9, 'job_name': '青海省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 8, 'job_name': '安徽省宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省中国科学技术大学商学院管理科学与工程专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '安徽省', 'type': '学校', 'rank': 8, 'job_name': '安徽省中国科学技术大学商学院管理科学与工程专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国人民大学经济学院政治经济学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市中国人民大学经济学院政治经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '甘肃省兰州市', 'job_name': '甘肃省兰州市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '甘肃省兰州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '甘肃省兰州市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央供销合作社理事会主任'}</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中央民族学院少数民族经济研究所民族经济学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市中央民族学院少数民族经济研究所民族经济学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省统战部副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 6, 'job_name': '甘肃省统战部副部长'}</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1993-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 8, 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 0, 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'type': '政府/国务院', 'rank': 7, 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 11, 'job_name': '中央总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省衢州市', 'job_name': '浙江省衢州市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '浙江省衢州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省衢州市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 8, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 9, 'job_name': '河北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省湖南大学商学院管理工程专业博士生'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 7, 'job_name': '湖南省湖南大学商学院管理工程专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1997-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '内蒙古自治区', 'type': '人大', 'rank': 9, 'job_name': '内蒙古自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央内务司法委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央内务司法委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 9, 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '北京市顺义区', 'job_name': '北京市顺义区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '北京市顺义区', 'type': '政府/国务院', 'rank': 7, 'job_name': '北京市顺义区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 9, 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'type': '人大', 'rank': 9, 'job_name': '黑龙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央企业工作委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央企业工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '人大', 'rank': 9, 'job_name': '浙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会常委'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央纪律检查委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族和宗教委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央民族和宗教委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 9, 'job_name': '福建省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 0, 'job_name': '北京市政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 9, 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-07-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央办公厅/室副主任'}</t>
+          <t>{'begin_time': Timestamp('1995-07-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央办公厅/室副主任'}</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会办公室委员'}</t>
+          <t>{'begin_time': Timestamp('1997-04-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央精神文明建设指导委员会办公室委员'}</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 9, 'job_name': '河南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部副部长'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传部副部长'}</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央广播电影电视部/厅/局局长'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局局长'}</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央广播电影电视部/厅/局党组书记'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局党组书记'}</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央维护稳定工作小组成员（兼任）'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央维护稳定工作小组成员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员（兼任）'}</t>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会委员（兼任）'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央精神文明建设指导委员会委员（兼任）'}</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2002-02-01 00:00:00'), 'location': '湖北省', 'type': '人大', 'rank': 9, 'job_name': '湖北省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央交通部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市哈尔滨工业大学管理科学与工程专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2002-06-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '学校', 'rank': 8, 'job_name': '黑龙江省哈尔滨市哈尔滨工业大学管理科学与工程专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政协常委会主席、党组书记'}</t>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政协', 'rank': 9, 'job_name': '广西壮族自治区政协常委会主席、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2002-01-01 00:00:00'), 'location': '广西壮族自治区', 'type': '人大', 'rank': 9, 'job_name': '广西壮族自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 9, 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 8, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'job_name': '中央直属机关工作委员会正部长级副书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1991-02-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('1991-02-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央交通部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'job_name': '中央社会治安综合治理委员会委员'}</t>
+          <t>{'begin_time': Timestamp('1993-08-01 00:00:00'), 'end_time': Timestamp('2002-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央社会治安综合治理委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '四川省', 'type': '人大', 'rank': 9, 'job_name': '四川省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 9, 'job_name': '四川省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部干部二局局长'}</t>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2002-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部干部二局局长'}</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('1992-11-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-06-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省贵州省军区书记'}</t>
+          <t>{'begin_time': Timestamp('1993-06-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '贵州省', 'type': '军队', 'rank': 9, 'job_name': '贵州省贵州省军区书记'}</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央新闻出版署/版权局局长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员'}</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '军队', 'rank': 8, 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区教育部/厅/局厅长、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区教育部/厅/局厅长、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校研究生院在职研究生班中共党史专业学员'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校研究生院在职研究生班中共党史专业学员'}</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '陕西省', 'type': '政协', 'rank': 9, 'job_name': '陕西省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大民族委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大民族委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '党委', 'rank': 9, 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2002-03-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '四川省', 'job_name': '四川省组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2002-09-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1994-09-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 9, 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'job_name': '中央顾问委员会委员'}</t>
+          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央教科文卫体委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央教科文卫体委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协委员会常委'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '浙江省舟山市', 'job_name': '浙江省舟山市党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2002-04-01 00:00:00'), 'location': '浙江省舟山市', 'type': '党委', 'rank': 0, 'job_name': '浙江省舟山市党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'job_name': '中央内务司法委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央内务司法委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '党委', 'rank': 0, 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
